--- a/Production/Shiny/data/Dead Dogs Live Concerts - Extended.xlsx
+++ b/Production/Shiny/data/Dead Dogs Live Concerts - Extended.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PC3\Operation Ultra\09 - R\18 - Blog &amp; Projects\07. Dead Dogs Analytics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC3\Operation Ultra\09 - R\Projects\Dead Dogs Analytics\Dead Dogs Analytics ShinyApp\Production\Shiny\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF0C70C-6CD6-41FF-92DA-F437763D0A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A05C908-E44B-461D-986A-511D1F6EB363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,89 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Alessandro Speranza</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Poi nel pallino e nella tabella evidenzio la data esatta</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Concerts</t>
-  </si>
-  <si>
-    <t>Tables</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Member 3rd Guitar</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>1stVocalist</t>
-  </si>
-  <si>
-    <t>2ndVocalist</t>
-  </si>
-  <si>
-    <t>3rdVocalist</t>
-  </si>
-  <si>
-    <t>Member1stGuitar</t>
-  </si>
-  <si>
-    <t>Member2ndGuitar</t>
-  </si>
-  <si>
-    <t>Member3rdGuitar</t>
-  </si>
-  <si>
-    <t>MemberBassGuitar</t>
-  </si>
-  <si>
-    <t>MemberDrums</t>
-  </si>
-  <si>
-    <t>MemberKeyboards</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>50's Party</t>
   </si>
@@ -326,20 +244,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -368,10 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,127 +568,127 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="129.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="129.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>1995</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>1996</v>
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1997</v>
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>1995</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2006</v>
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>45.370282000000003</v>
@@ -791,15 +701,15 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>45.419184000000001</v>
@@ -811,18 +721,18 @@
         <v>2013</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>45.419184000000001</v>
@@ -834,18 +744,18 @@
         <v>2014</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>45.419184000000001</v>
@@ -857,18 +767,18 @@
         <v>2015</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>45.326124999999998</v>
@@ -880,21 +790,21 @@
         <v>2016</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>45.370282000000003</v>
@@ -906,21 +816,21 @@
         <v>2016</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>45.432414000000001</v>
@@ -932,21 +842,21 @@
         <v>2016</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>45.468432</v>
@@ -958,21 +868,21 @@
         <v>2017</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>45.432414000000001</v>
@@ -984,21 +894,21 @@
         <v>2017</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>45.432414000000001</v>
@@ -1010,21 +920,21 @@
         <v>2018</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>45.432414000000001</v>
@@ -1036,21 +946,21 @@
         <v>2018</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>45.370282000000003</v>
@@ -1062,21 +972,21 @@
         <v>2019</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>45.468736999999997</v>
@@ -1088,21 +998,21 @@
         <v>2019</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>45.432414000000001</v>
@@ -1114,21 +1024,21 @@
         <v>2019</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>45.500714000000002</v>
@@ -1140,106 +1050,12 @@
         <v>2020</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>